--- a/Dorokei/Documents/全体シーケンス.xlsx
+++ b/Dorokei/Documents/全体シーケンス.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Desktop\gamejam\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Documents\dorokei\Dorokei\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016E5273-821E-42AA-8F99-596D9C37709B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA2F90-F6A6-4306-AC86-7DB46398AC44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="全体シーケンス" sheetId="1" r:id="rId1"/>
+    <sheet name="全体シーケンス (2)" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">全体シーケンス!$AE$4:$AI$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'全体シーケンス (2)'!$AE$3:$AG$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,11 +36,311 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>■全体シーケンスフロー</t>
     <rPh sb="1" eb="3">
       <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーケンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームスタート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタート画面一枚絵</t>
+    <rPh sb="6" eb="9">
+      <t>イチマイエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタートボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遊び方</t>
+    <rPh sb="0" eb="1">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”３”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”２”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”１”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”START！”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力タイミングUI</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りタイム表記</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宝物開封演出</t>
+    <rPh sb="0" eb="2">
+      <t>タカラモノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”ホシwin!”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>”サツwin!”</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※完了したら色を変えてください。必要なものが思いついたら追記してください。</t>
+    <rPh sb="1" eb="3">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGMに当たるもの</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャーリーさん発注</t>
+    <rPh sb="7" eb="9">
+      <t>ハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ジングル（ホシ）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勝利ジングル（サツ）</t>
+    <rPh sb="0" eb="2">
+      <t>ショウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+    <rPh sb="0" eb="3">
+      <t>ユウセンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>獲得済み宝箱数UI</t>
+    <rPh sb="0" eb="2">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タカラバコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ゲームスタート画面</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.ゲームスタートの演出</t>
+    <rPh sb="10" eb="12">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.全シーケンス</t>
+    <rPh sb="2" eb="3">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-1.サツwin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4-2.ホシwin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.プレイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.クレジット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚絵</t>
+    <rPh sb="0" eb="3">
+      <t>イチマイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓S:βまでに, A:MAST実装, B=なるべく, C=後回し</t>
+    <rPh sb="15" eb="17">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A(S)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■全体シーケンスフロー＆素材作成タスクリスト</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>永井</t>
+    <rPh sb="0" eb="2">
+      <t>ナガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小田切</t>
+    <rPh sb="0" eb="3">
+      <t>オダギリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -44,7 +349,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +382,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,13 +421,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -106,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -114,6 +471,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -139,6 +514,1108 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8300A21-1A05-427A-A96A-54C55B8AB2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1306285" y="745671"/>
+          <a:ext cx="1959429" cy="451758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ゲームスタート画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>212271</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>10886</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C47BB0-0970-4437-8BC0-9FE03823C27D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1306286" y="1409700"/>
+          <a:ext cx="1970314" cy="440871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ホシの宝箱選択シーケンス</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>212272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>201386</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00104938-7524-4551-9909-3C62491788B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1306286" y="2280558"/>
+          <a:ext cx="1943100" cy="440871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ゲームスタートの演出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE066A2-B75E-4AA0-9A87-12564B2A8C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322615" y="3167744"/>
+          <a:ext cx="1943100" cy="440871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>プレイ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212273</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914A0E84-F166-412B-953F-6F4666C3B790}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1300844" y="4027716"/>
+          <a:ext cx="865413" cy="440871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ホシ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>win</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10887</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59D6A44-C9AE-421E-9258-B62077A81999}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2405744" y="4022273"/>
+          <a:ext cx="865413" cy="440871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>サツ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+            <a:t>win</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>212271</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC6AA94-F58C-4AD6-B1F9-CCE4316C4BE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="1197429"/>
+          <a:ext cx="5443" cy="429985"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>212272</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9DEA03-4AE8-4F1E-BE3C-007E579A41F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2277836" y="1850571"/>
+          <a:ext cx="13607" cy="429987"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100693</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117022</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E77AB8-D7BA-4377-8FF4-74996EF82671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2277836" y="2721429"/>
+          <a:ext cx="16329" cy="446315"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117022</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C43068-3F5F-4AAC-8D80-0B25FEA21093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1733551" y="3608615"/>
+          <a:ext cx="560614" cy="419101"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117022</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8165</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212273</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC67302-FC4F-429B-8AE5-777E43C03BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2294165" y="3608615"/>
+          <a:ext cx="544286" cy="413658"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592874A9-699E-4F6B-9317-8AA3F6369C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3690257" y="544286"/>
+          <a:ext cx="1970314" cy="440871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>一枚目チュートリアル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>210911</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7354CC3E-3E92-4CBB-A20D-4007B64C9FA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1772332" y="4647521"/>
+          <a:ext cx="423180" cy="500742"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8166</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>210910</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA871AE6-00D3-4212-90DE-6E50F38F3E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2322061" y="4593091"/>
+          <a:ext cx="428623" cy="604158"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>206828</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BFF371-135F-4BE4-99B6-70895F30E679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3265714" y="971550"/>
+          <a:ext cx="424543" cy="10886"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="乗算記号 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790AEB6C-3237-4537-90EA-5ECCF104B593}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1034143" y="1265464"/>
+          <a:ext cx="2558143" cy="1245053"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8766"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>210911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25434962-962B-4728-A8FF-3F1821DEEA41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1254578" y="5109482"/>
+          <a:ext cx="1959429" cy="451758"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>クレジット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>201385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738111AB-564A-45E1-BC00-439C618EFF48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="-147639" y="3127602"/>
+          <a:ext cx="4815569" cy="51707"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4747"/>
+            <a:gd name="adj2" fmla="val -2918429"/>
+            <a:gd name="adj3" fmla="val 104747"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>201385</xdr:rowOff>
     </xdr:from>
@@ -153,7 +1630,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8300A21-1A05-427A-A96A-54C55B8AB2C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB4FEBF-EF2D-4C40-8280-5470452C3C48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -218,7 +1695,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C47BB0-0970-4437-8BC0-9FE03823C27D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67B5CD29-965F-4FC0-81A5-47339C73EE41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -226,8 +1703,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1306286" y="1409700"/>
-          <a:ext cx="1970314" cy="440871"/>
+          <a:off x="1306286" y="1627414"/>
+          <a:ext cx="1970314" cy="440872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -282,7 +1759,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00104938-7524-4551-9909-3C62491788B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D1ACF21-B8EB-4503-8ADC-209C991D5D38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -290,7 +1767,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1306286" y="2280558"/>
+          <a:off x="1306286" y="2498272"/>
           <a:ext cx="1943100" cy="440871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -346,7 +1823,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE066A2-B75E-4AA0-9A87-12564B2A8C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19331C55-0766-4D15-9927-D746430709A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -354,7 +1831,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1322615" y="3167744"/>
+          <a:off x="1322615" y="3385458"/>
           <a:ext cx="1943100" cy="440871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -410,7 +1887,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914A0E84-F166-412B-953F-6F4666C3B790}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5F38F4-CD90-421C-9A24-A7C170CDFD3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,8 +1895,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1300844" y="4027716"/>
-          <a:ext cx="865413" cy="440871"/>
+          <a:off x="1300844" y="4245431"/>
+          <a:ext cx="865413" cy="440870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -479,7 +1956,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E59D6A44-C9AE-421E-9258-B62077A81999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D8C973A-A15A-48DB-8557-3FCB88C3F82C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -487,7 +1964,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2405744" y="4022273"/>
+          <a:off x="2405744" y="4239987"/>
           <a:ext cx="865413" cy="440871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -545,10 +2022,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBC6AA94-F58C-4AD6-B1F9-CCE4316C4BE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822AEEE8-963C-4D86-A7A4-877DD21115FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,10 +2078,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9DEA03-4AE8-4F1E-BE3C-007E579A41F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBEC0018-A25E-492A-A9AD-C3A62B1D68A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -615,8 +2092,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2277836" y="1850571"/>
-          <a:ext cx="13607" cy="429987"/>
+          <a:off x="2277836" y="2068286"/>
+          <a:ext cx="13607" cy="429986"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -657,10 +2134,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E77AB8-D7BA-4377-8FF4-74996EF82671}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD69719-59B0-4733-9A2B-46786BE667BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -671,7 +2148,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2277836" y="2721429"/>
+          <a:off x="2277836" y="2939143"/>
           <a:ext cx="16329" cy="446315"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -713,10 +2190,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C43068-3F5F-4AAC-8D80-0B25FEA21093}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6F774F0-3C5D-49CE-A011-79ED189B0379}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -727,8 +2204,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1733551" y="3608615"/>
-          <a:ext cx="560614" cy="419101"/>
+          <a:off x="1733551" y="3826329"/>
+          <a:ext cx="560614" cy="419102"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -769,10 +2246,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAC67302-FC4F-429B-8AE5-777E43C03BC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637B7C65-5594-446D-80DD-567AD5E8459A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +2260,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2294165" y="3608615"/>
+          <a:off x="2294165" y="3826329"/>
           <a:ext cx="544286" cy="413658"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -825,10 +2302,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592874A9-699E-4F6B-9317-8AA3F6369C53}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89918D5C-1645-4452-9635-62458DCA655A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -836,8 +2313,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3690257" y="544286"/>
-          <a:ext cx="1970314" cy="440871"/>
+          <a:off x="3690257" y="762000"/>
+          <a:ext cx="1970314" cy="440872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -889,10 +2366,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="コネクタ: カギ線 22">
+        <xdr:cNvPr id="14" name="コネクタ: カギ線 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7354CC3E-3E92-4CBB-A20D-4007B64C9FA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F1EEC0-12D0-4C9A-9ABB-A9E191138BEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -904,7 +2381,7 @@
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
           <a:off x="-337458" y="2615293"/>
-          <a:ext cx="3714752" cy="427266"/>
+          <a:ext cx="3714751" cy="427266"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -948,10 +2425,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+        <xdr:cNvPr id="15" name="コネクタ: カギ線 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA871AE6-00D3-4212-90DE-6E50F38F3E3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605C7683-AAE1-485A-AB11-91CF72C5BBB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +2439,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="217713" y="2060122"/>
-          <a:ext cx="3709309" cy="1532166"/>
+          <a:off x="217714" y="2060121"/>
+          <a:ext cx="3709308" cy="1532166"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -1007,16 +2484,16 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BFF371-135F-4BE4-99B6-70895F30E679}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14492384-DD3A-4082-8586-DF7B930EFD19}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="18" idx="1"/>
+          <a:endCxn id="13" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1349,20 +2826,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E34ADAB-9222-4DDF-AA9C-60708286DDBC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W17" sqref="W17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="31" max="31" width="20.35546875" customWidth="1"/>
+    <col min="32" max="32" width="18.640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="18.640625" customWidth="1"/>
+    <col min="35" max="35" width="17.0703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:35" s="1" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="13.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="13.3" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AG3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI5" s="8"/>
+    </row>
+    <row r="6" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="7" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI8" s="4"/>
+    </row>
+    <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+    </row>
+    <row r="10" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI10" s="4"/>
+    </row>
+    <row r="11" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI11" s="4"/>
+    </row>
+    <row r="12" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI12" s="4"/>
+    </row>
+    <row r="13" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI13" s="4"/>
+    </row>
+    <row r="14" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI14" s="4"/>
+    </row>
+    <row r="15" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+    </row>
+    <row r="16" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+    </row>
+    <row r="17" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+    </row>
+    <row r="19" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI19" s="4"/>
+    </row>
+    <row r="20" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI20" s="4"/>
+    </row>
+    <row r="21" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI22" s="4"/>
+    </row>
+    <row r="23" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI23" s="6"/>
+    </row>
+    <row r="24" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+    </row>
+    <row r="25" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+    </row>
+    <row r="26" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+    </row>
+    <row r="27" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+    </row>
+    <row r="28" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+    </row>
+    <row r="29" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+    </row>
+    <row r="30" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+    </row>
+    <row r="31" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+    </row>
+    <row r="32" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+    </row>
+    <row r="33" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+    </row>
+    <row r="34" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="AE4:AI4" xr:uid="{25D71BE3-59E5-409D-B6D6-BDE06092D2FE}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE5:AI23">
+      <sortCondition ref="AE4"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8301E37E-F8A9-4C7A-BE57-EEEC1F0601AB}">
+  <dimension ref="A1:AG33"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AG1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="31" max="31" width="15.28515625" customWidth="1"/>
+    <col min="32" max="32" width="18.640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.0703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="4"/>
+    </row>
+    <row r="5" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+    </row>
+    <row r="8" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+    </row>
+    <row r="9" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+    </row>
+    <row r="14" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+    </row>
+    <row r="15" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+    </row>
+    <row r="16" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+    </row>
+    <row r="17" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+    </row>
+    <row r="18" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+    </row>
+    <row r="19" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+    </row>
+    <row r="20" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+    </row>
+    <row r="21" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+    </row>
+    <row r="22" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+    </row>
+    <row r="23" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+    </row>
+    <row r="24" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+    </row>
+    <row r="25" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+    </row>
+    <row r="26" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+    </row>
+    <row r="27" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+    </row>
+    <row r="28" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+    </row>
+    <row r="29" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+    </row>
+    <row r="30" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+    </row>
+    <row r="31" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+    </row>
+    <row r="32" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+    </row>
+    <row r="33" spans="31:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+    </row>
   </sheetData>
+  <autoFilter ref="AE3:AG3" xr:uid="{25D71BE3-59E5-409D-B6D6-BDE06092D2FE}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Dorokei/Documents/全体シーケンス.xlsx
+++ b/Dorokei/Documents/全体シーケンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Documents\dorokei\Dorokei\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CA2F90-F6A6-4306-AC86-7DB46398AC44}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC2B6D-6ED9-4AB6-93A4-6BFE2816FEFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>■全体シーケンスフロー</t>
     <rPh sb="1" eb="3">
@@ -341,6 +341,23 @@
     <t>小田切</t>
     <rPh sb="0" eb="3">
       <t>オダギリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田邊</t>
+    <rPh sb="0" eb="2">
+      <t>タナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発注中</t>
+    <rPh sb="0" eb="2">
+      <t>ハッチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2829,7 +2846,7 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2914,19 +2931,19 @@
       <c r="AI7" s="4"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AF8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AH8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI8" s="4"/>
+      <c r="AI8" s="8"/>
     </row>
     <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE9" s="4" t="s">
@@ -2938,7 +2955,9 @@
       <c r="AG9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AH9" s="4"/>
+      <c r="AH9" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -3052,7 +3071,9 @@
       <c r="AG17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AH17" s="4"/>
+      <c r="AH17" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="AI17" s="4" t="s">
         <v>21</v>
       </c>

--- a/Dorokei/Documents/全体シーケンス.xlsx
+++ b/Dorokei/Documents/全体シーケンス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Documents\dorokei\Dorokei\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CC2B6D-6ED9-4AB6-93A4-6BFE2816FEFB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29173F-D794-4818-B5D3-ECBC787CC42A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
+    <workbookView xWindow="-10329" yWindow="3763" windowWidth="16458" windowHeight="8520" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="全体シーケンス" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>■全体シーケンスフロー</t>
     <rPh sb="1" eb="3">
@@ -359,6 +359,31 @@
     <rPh sb="2" eb="3">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田邊</t>
+    <rPh sb="0" eb="2">
+      <t>タナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル案出し</t>
+    <rPh sb="4" eb="5">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>みんな</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -537,7 +562,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -596,13 +621,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>212271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -660,13 +685,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>212272</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>201386</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -724,13 +749,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -788,13 +813,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>212273</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>5444</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -857,13 +882,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>10887</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>212273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>5443</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -926,13 +951,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>212271</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -982,13 +1007,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>100693</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>212272</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1038,13 +1063,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>100693</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>10887</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1094,13 +1119,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1150,13 +1175,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>16329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>8165</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>212273</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1212,7 +1237,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1270,13 +1295,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>5444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>210911</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1328,13 +1353,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>8166</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>210910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1392,7 +1417,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>2722</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1443,13 +1468,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>6803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1503,13 +1528,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>166007</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>210911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>166007</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1574,7 +1599,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>108856</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2843,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E34ADAB-9222-4DDF-AA9C-60708286DDBC}">
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView tabSelected="1" topLeftCell="AC4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2905,73 +2930,77 @@
       <c r="AI5" s="8"/>
     </row>
     <row r="6" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
+      <c r="AE6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI6" s="8"/>
     </row>
     <row r="7" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="AF7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="4"/>
+    </row>
+    <row r="8" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-    </row>
-    <row r="8" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE8" s="8" t="s">
+      <c r="AH8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI8" s="4"/>
+    </row>
+    <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="8" t="s">
+      <c r="AF9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AG9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH8" s="8" t="s">
+      <c r="AH9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AI8" s="8"/>
-    </row>
-    <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI9" s="4"/>
+      <c r="AI9" s="8"/>
     </row>
     <row r="10" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI10" s="4"/>
     </row>
@@ -2980,7 +3009,7 @@
         <v>28</v>
       </c>
       <c r="AF11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" s="4" t="s">
         <v>35</v>
@@ -2995,7 +3024,7 @@
         <v>28</v>
       </c>
       <c r="AF12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG12" s="4" t="s">
         <v>35</v>
@@ -3010,7 +3039,7 @@
         <v>28</v>
       </c>
       <c r="AF13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG13" s="4" t="s">
         <v>35</v>
@@ -3022,16 +3051,16 @@
     </row>
     <row r="14" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AF14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG14" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AH14" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AI14" s="4"/>
     </row>
@@ -3040,12 +3069,14 @@
         <v>32</v>
       </c>
       <c r="AF15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH15" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="AI15" s="4"/>
     </row>
     <row r="16" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -3053,10 +3084,10 @@
         <v>32</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG16" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AH16" s="4"/>
       <c r="AI16" s="4"/>
@@ -3066,44 +3097,42 @@
         <v>32</v>
       </c>
       <c r="AF17" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AG17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI17" s="4" t="s">
-        <v>21</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
     </row>
     <row r="18" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="AF18" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI18" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE19" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF19" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AG19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AH19" s="4"/>
       <c r="AI19" s="4"/>
     </row>
     <row r="20" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -3111,10 +3140,10 @@
         <v>30</v>
       </c>
       <c r="AF20" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AG20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH20" s="4" t="s">
         <v>45</v>
@@ -3123,13 +3152,13 @@
     </row>
     <row r="21" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG21" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AH21" s="4" t="s">
         <v>45</v>
@@ -3141,10 +3170,10 @@
         <v>31</v>
       </c>
       <c r="AF22" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH22" s="4" t="s">
         <v>45</v>
@@ -3152,25 +3181,33 @@
       <c r="AI22" s="4"/>
     </row>
     <row r="23" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG23" s="6" t="s">
-        <v>35</v>
+      <c r="AE23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="AH23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AI23" s="6"/>
+      <c r="AI23" s="4"/>
     </row>
     <row r="24" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
+      <c r="AE24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="AI24" s="6"/>
     </row>
     <row r="25" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
@@ -3216,11 +3253,11 @@
       <c r="AI30" s="6"/>
     </row>
     <row r="31" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
     </row>
     <row r="32" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE32" s="5"/>
@@ -3243,9 +3280,16 @@
       <c r="AH34" s="5"/>
       <c r="AI34" s="5"/>
     </row>
+    <row r="35" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+    </row>
   </sheetData>
   <autoFilter ref="AE4:AI4" xr:uid="{25D71BE3-59E5-409D-B6D6-BDE06092D2FE}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE5:AI23">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE5:AI24">
       <sortCondition ref="AE4"/>
     </sortState>
   </autoFilter>

--- a/Dorokei/Documents/全体シーケンス.xlsx
+++ b/Dorokei/Documents/全体シーケンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Documents\dorokei\Dorokei\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F29173F-D794-4818-B5D3-ECBC787CC42A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD91456-8127-4CFC-B09B-7CFA93520B36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-10329" yWindow="3763" windowWidth="16458" windowHeight="8520" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
   </bookViews>
@@ -2871,7 +2871,7 @@
   <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+      <selection activeCell="AG16" sqref="AG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>

--- a/Dorokei/Documents/全体シーケンス.xlsx
+++ b/Dorokei/Documents/全体シーケンス.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Documents\dorokei\Dorokei\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD91456-8127-4CFC-B09B-7CFA93520B36}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2187A60A-D66C-4CCC-A269-D6950A07E382}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10329" yWindow="3763" windowWidth="16458" windowHeight="8520" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
   </bookViews>
   <sheets>
     <sheet name="全体シーケンス" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="52">
   <si>
     <t>■全体シーケンスフロー</t>
     <rPh sb="1" eb="3">
@@ -2870,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E34ADAB-9222-4DDF-AA9C-60708286DDBC}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AG16" sqref="AG16"/>
+    <sheetView tabSelected="1" topLeftCell="AB5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2945,34 +2945,34 @@
       <c r="AI6" s="8"/>
     </row>
     <row r="7" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AH7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AI7" s="4"/>
+      <c r="AI7" s="8"/>
     </row>
     <row r="8" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE8" s="4" t="s">
+      <c r="AE8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="4" t="s">
+      <c r="AF8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="AG8" s="4" t="s">
+      <c r="AG8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AH8" s="4" t="s">
+      <c r="AH8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AI8" s="4"/>
+      <c r="AI8" s="8"/>
     </row>
     <row r="9" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE9" s="8" t="s">
@@ -2990,94 +2990,94 @@
       <c r="AI9" s="8"/>
     </row>
     <row r="10" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE10" s="4" t="s">
+      <c r="AE10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AF10" s="4" t="s">
+      <c r="AF10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="AG10" s="4" t="s">
+      <c r="AG10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH10" s="4" t="s">
+      <c r="AH10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AI10" s="4"/>
+      <c r="AI10" s="8"/>
     </row>
     <row r="11" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE11" s="4" t="s">
+      <c r="AE11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AF11" s="4" t="s">
+      <c r="AF11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AG11" s="4" t="s">
+      <c r="AG11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH11" s="4" t="s">
+      <c r="AH11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI11" s="4"/>
+      <c r="AI11" s="8"/>
     </row>
     <row r="12" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE12" s="4" t="s">
+      <c r="AE12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AF12" s="4" t="s">
+      <c r="AF12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AG12" s="4" t="s">
+      <c r="AG12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH12" s="4" t="s">
+      <c r="AH12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI12" s="4"/>
+      <c r="AI12" s="8"/>
     </row>
     <row r="13" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE13" s="4" t="s">
+      <c r="AE13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AF13" s="4" t="s">
+      <c r="AF13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AG13" s="4" t="s">
+      <c r="AG13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH13" s="4" t="s">
+      <c r="AH13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI13" s="4"/>
+      <c r="AI13" s="8"/>
     </row>
     <row r="14" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE14" s="4" t="s">
+      <c r="AE14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AF14" s="4" t="s">
+      <c r="AF14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AG14" s="4" t="s">
+      <c r="AG14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH14" s="4" t="s">
+      <c r="AH14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AI14" s="4"/>
+      <c r="AI14" s="8"/>
     </row>
     <row r="15" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE15" s="4" t="s">
+      <c r="AE15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AF15" s="4" t="s">
+      <c r="AF15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AG15" s="4" t="s">
+      <c r="AG15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AH15" s="4" t="s">
+      <c r="AH15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AI15" s="4"/>
+      <c r="AI15" s="8"/>
     </row>
     <row r="16" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
       <c r="AE16" s="4" t="s">

--- a/Dorokei/Documents/全体シーケンス.xlsx
+++ b/Dorokei/Documents/全体シーケンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Documents\dorokei\Dorokei\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2187A60A-D66C-4CCC-A269-D6950A07E382}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D36A88-E0EE-4777-B80B-0EE18706EB77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>■全体シーケンスフロー</t>
     <rPh sb="1" eb="3">
@@ -674,7 +674,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>ホシの宝箱選択シーケンス</a:t>
+            <a:t>一枚絵チュートリアル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1229,70 +1229,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592874A9-699E-4F6B-9317-8AA3F6369C53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3690257" y="544286"/>
-          <a:ext cx="1970314" cy="440871"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
-            <a:t>一枚目チュートリアル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>209551</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -1405,123 +1341,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BFF371-135F-4BE4-99B6-70895F30E679}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="18" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3265714" y="971550"/>
-          <a:ext cx="424543" cy="10886"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>68035</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>6803</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="乗算記号 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{790AEB6C-3237-4537-90EA-5ECCF104B593}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1034143" y="1265464"/>
-          <a:ext cx="2558143" cy="1245053"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 8766"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2870,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E34ADAB-9222-4DDF-AA9C-60708286DDBC}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>

--- a/Dorokei/Documents/全体シーケンス.xlsx
+++ b/Dorokei/Documents/全体シーケンス.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryo\Documents\dorokei\Dorokei\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D36A88-E0EE-4777-B80B-0EE18706EB77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F788E9EA-5C42-4917-8D6A-98EE889ADDF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{F9980CDB-1DE2-4491-A3EC-E00894D33FC9}"/>
   </bookViews>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E34ADAB-9222-4DDF-AA9C-60708286DDBC}">
   <dimension ref="A1:AI35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.65"/>
@@ -2925,19 +2925,19 @@
       <c r="AI17" s="4"/>
     </row>
     <row r="18" spans="31:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="AE18" s="4" t="s">
+      <c r="AE18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AF18" s="4" t="s">
+      <c r="AF18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AG18" s="4" t="s">
+      <c r="AG18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AH18" s="4" t="s">
+      <c r="AH18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AI18" s="4" t="s">
+      <c r="AI18" s="8" t="s">
         <v>21</v>
       </c>
     </row>
